--- a/raw/riesaufdrucke.xlsx
+++ b/raw/riesaufdrucke.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="1111">
   <si>
     <t xml:space="preserve">kasten</t>
   </si>
@@ -320,9 +320,6 @@
   </si>
   <si>
     <t xml:space="preserve">Motiv identisch zu RA 1971/Bl 205, RA 1971/Bl 206, RA 1971/Bl 207, RA 1975/Bl 132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">954901096 041658019 945895291 </t>
   </si>
   <si>
     <t xml:space="preserve">1971/Bl 209</t>
@@ -4285,16 +4282,16 @@
   </sheetPr>
   <dimension ref="A1:AMJ123"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
+      <selection pane="bottomLeft" activeCell="Y9" activeCellId="0" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="16.57"/>
@@ -4302,15 +4299,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="20.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="25.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="27.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="25.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="27.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="14" style="2" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="20" style="2" width="52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="20.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="25" style="2" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="2" width="58.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="26" style="2" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="29" style="2" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="2" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="2" width="37.14"/>
@@ -5723,8 +5721,8 @@
       <c r="X8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y8" s="2" t="s">
-        <v>98</v>
+      <c r="Y8" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="AA8" s="2" t="n">
         <v>40257363</v>
@@ -5746,7 +5744,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>34</v>
@@ -5776,10 +5774,10 @@
         <v>40</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>43</v>
@@ -5791,13 +5789,13 @@
         <v>44</v>
       </c>
       <c r="Q9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="U9" s="9" t="s">
         <v>47</v>
@@ -5806,7 +5804,7 @@
         <v>891000038</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z9" s="9" t="n">
         <v>1043027912</v>
@@ -5826,7 +5824,7 @@
         <v>63</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5834,7 +5832,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -5856,10 +5854,10 @@
         <v>54</v>
       </c>
       <c r="L10" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>43</v>
@@ -5871,10 +5869,10 @@
         <v>44</v>
       </c>
       <c r="Q10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="R10" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
@@ -5950,7 +5948,7 @@
         <v>32</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -5972,10 +5970,10 @@
         <v>54</v>
       </c>
       <c r="L11" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>43</v>
@@ -5987,10 +5985,10 @@
         <v>44</v>
       </c>
       <c r="Q11" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="R11" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
@@ -5999,7 +5997,7 @@
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z11" s="9"/>
       <c r="AA11" s="2" t="n">
@@ -6066,13 +6064,13 @@
         <v>32</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" s="16" t="s">
         <v>119</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>120</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>88</v>
@@ -6088,19 +6086,19 @@
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>54</v>
       </c>
       <c r="L12" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="N12" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="O12" s="9" t="s">
         <v>54</v>
@@ -6109,10 +6107,10 @@
         <v>44</v>
       </c>
       <c r="Q12" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="R12" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
@@ -6121,7 +6119,7 @@
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
       <c r="Y12" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="2" t="n">
@@ -6190,13 +6188,13 @@
         <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>88</v>
@@ -6214,40 +6212,40 @@
         <v>1032278617</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="O13" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q13" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="R13" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="W13" s="2" t="n">
         <v>891000038</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA13" s="2" t="n">
         <v>40257363</v>
@@ -6256,10 +6254,10 @@
         <v>41803329</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="128.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6267,7 +6265,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1623</v>
@@ -6291,44 +6289,44 @@
         <v>1030064695</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="O14" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R14" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="T14" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="U14" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="U14" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="V14" s="9"/>
       <c r="W14" s="2" t="n">
         <v>891000038</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y14" s="2" t="n">
         <v>954480481</v>
@@ -6343,13 +6341,13 @@
         <v>41803329</v>
       </c>
       <c r="AC14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF14" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AF14" s="2" t="s">
+      <c r="AG14" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="AG14" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="96.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6357,13 +6355,13 @@
         <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>36</v>
@@ -6375,46 +6373,46 @@
         <v>38</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>1037463137</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="O15" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q15" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="R15" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="T15" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="W15" s="2" t="n">
         <v>891000038</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA15" s="2" t="n">
         <v>40257363</v>
@@ -6431,13 +6429,13 @@
         <v>32</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>170</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>36</v>
@@ -6453,29 +6451,29 @@
         <v>1037232232</v>
       </c>
       <c r="J16" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="L16" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>173</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Q16" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="R16" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>176</v>
       </c>
       <c r="S16" s="9"/>
       <c r="T16" s="9" t="s">
@@ -6486,10 +6484,10 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
       <c r="Y16" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z16" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="Z16" s="9" t="s">
-        <v>178</v>
       </c>
       <c r="AA16" s="2" t="n">
         <v>40257363</v>
@@ -6567,7 +6565,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -6589,13 +6587,13 @@
         <v>54</v>
       </c>
       <c r="L17" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="M17" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="N17" s="9" t="s">
         <v>181</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>182</v>
       </c>
       <c r="O17" s="9" t="s">
         <v>54</v>
@@ -6604,10 +6602,10 @@
         <v>44</v>
       </c>
       <c r="Q17" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="R17" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -6616,7 +6614,7 @@
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
       <c r="Y17" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9" t="n">
@@ -6697,13 +6695,13 @@
         <v>32</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="D18" s="18" t="s">
         <v>187</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>188</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>88</v>
@@ -6719,31 +6717,31 @@
         <v>1037166493</v>
       </c>
       <c r="J18" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="L18" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="M18" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="M18" s="9" t="s">
-        <v>192</v>
-      </c>
       <c r="N18" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Q18" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="R18" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
@@ -6752,7 +6750,7 @@
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
       <c r="Y18" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9" t="n">
@@ -6768,10 +6766,10 @@
         <v>50688081</v>
       </c>
       <c r="AE18" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF18" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="AF18" s="9" t="s">
-        <v>197</v>
       </c>
       <c r="AG18" s="9" t="s">
         <v>92</v>
@@ -6837,7 +6835,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -6859,13 +6857,13 @@
         <v>54</v>
       </c>
       <c r="L19" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="M19" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="M19" s="9" t="s">
-        <v>200</v>
-      </c>
       <c r="N19" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O19" s="9" t="s">
         <v>54</v>
@@ -6874,10 +6872,10 @@
         <v>44</v>
       </c>
       <c r="Q19" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="R19" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="R19" s="9" t="s">
-        <v>202</v>
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -6967,7 +6965,7 @@
         <v>32</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -6989,13 +6987,13 @@
         <v>54</v>
       </c>
       <c r="L20" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="M20" s="9" t="s">
-        <v>205</v>
-      </c>
       <c r="N20" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O20" s="9" t="s">
         <v>54</v>
@@ -7004,10 +7002,10 @@
         <v>44</v>
       </c>
       <c r="Q20" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="R20" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>207</v>
       </c>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
@@ -7016,7 +7014,7 @@
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
       <c r="Y20" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z20" s="9"/>
       <c r="AA20" s="9" t="n">
@@ -7031,7 +7029,7 @@
       <c r="AD20" s="9"/>
       <c r="AE20" s="9"/>
       <c r="AF20" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG20" s="9" t="s">
         <v>92</v>
@@ -7097,13 +7095,13 @@
         <v>32</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>210</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>211</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>88</v>
@@ -7119,31 +7117,31 @@
         <v>1037166493</v>
       </c>
       <c r="J21" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="K21" s="9" t="s">
-        <v>190</v>
-      </c>
       <c r="L21" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
@@ -7152,7 +7150,7 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9" t="n">
@@ -7233,13 +7231,13 @@
         <v>32</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>187</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>188</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>88</v>
@@ -7255,31 +7253,31 @@
         <v>1037166493</v>
       </c>
       <c r="J22" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K22" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="K22" s="9" t="s">
-        <v>190</v>
-      </c>
       <c r="L22" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="M22" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="M22" s="9" t="s">
-        <v>216</v>
-      </c>
       <c r="N22" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Q22" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="R22" s="9" t="s">
         <v>217</v>
-      </c>
-      <c r="R22" s="9" t="s">
-        <v>218</v>
       </c>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
@@ -7288,7 +7286,7 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Z22" s="9"/>
       <c r="AA22" s="9" t="n">
@@ -7369,13 +7367,13 @@
         <v>32</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C23" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>187</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>188</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>88</v>
@@ -7391,31 +7389,31 @@
         <v>1037166493</v>
       </c>
       <c r="J23" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="K23" s="9" t="s">
-        <v>190</v>
-      </c>
       <c r="L23" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="M23" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="M23" s="9" t="s">
-        <v>222</v>
-      </c>
       <c r="N23" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P23" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Q23" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="R23" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="R23" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
@@ -7424,7 +7422,7 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Z23" s="9"/>
       <c r="AA23" s="9" t="n">
@@ -7505,13 +7503,13 @@
         <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>36</v>
@@ -7529,40 +7527,40 @@
         <v>1037759575</v>
       </c>
       <c r="J24" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="N24" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="O24" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q24" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="T24" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="W24" s="2" t="n">
         <v>891000038</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AA24" s="2" t="n">
         <v>40257363</v>
@@ -7574,7 +7572,7 @@
         <v>40654915</v>
       </c>
       <c r="AF24" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="97.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7582,13 +7580,13 @@
         <v>32</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C25" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>187</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>188</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>88</v>
@@ -7604,31 +7602,31 @@
         <v>1037166493</v>
       </c>
       <c r="J25" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K25" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="K25" s="9" t="s">
-        <v>190</v>
-      </c>
       <c r="L25" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="M25" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="M25" s="9" t="s">
-        <v>239</v>
-      </c>
       <c r="N25" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P25" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Q25" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="R25" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="R25" s="9" t="s">
-        <v>241</v>
       </c>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
@@ -7637,7 +7635,7 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z25" s="9"/>
       <c r="AA25" s="2" t="n">
@@ -7652,7 +7650,7 @@
       <c r="AD25" s="9"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG25" s="9" t="s">
         <v>92</v>
@@ -7679,13 +7677,13 @@
         <v>32</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="D26" s="16" t="s">
         <v>243</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>244</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>88</v>
@@ -7700,34 +7698,34 @@
         <v>1049568893</v>
       </c>
       <c r="I26" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="J26" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="K26" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="L26" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="L26" s="9" t="s">
+      <c r="M26" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="M26" s="9" t="s">
+      <c r="N26" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="N26" s="9" t="s">
-        <v>250</v>
-      </c>
       <c r="O26" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P26" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Q26" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="R26" s="9" t="s">
         <v>251</v>
-      </c>
-      <c r="R26" s="9" t="s">
-        <v>252</v>
       </c>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
@@ -7736,7 +7734,7 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Z26" s="9"/>
       <c r="AA26" s="2" t="n">
@@ -7762,13 +7760,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>36</v>
@@ -7780,59 +7778,59 @@
         <v>38</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>1037327365</v>
       </c>
       <c r="J27" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="N27" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="O27" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q27" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="R27" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="R27" s="2" t="s">
+      <c r="S27" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="T27" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>47</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W27" s="2" t="n">
         <v>891000038</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Z27" s="9"/>
       <c r="AA27" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AB27" s="2" t="n">
         <v>41803329</v>
@@ -7849,13 +7847,13 @@
         <v>32</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>270</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>36</v>
@@ -7867,52 +7865,52 @@
         <v>38</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>1037327365</v>
       </c>
       <c r="J28" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="L28" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="N28" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q28" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="R28" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="R28" s="2" t="s">
+      <c r="S28" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="T28" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="X28" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="X28" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="Y28" s="2" t="n">
         <v>954480481</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AB28" s="2" t="n">
         <v>41803329</v>
@@ -7926,13 +7924,13 @@
         <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>36</v>
@@ -7944,61 +7942,61 @@
         <v>38</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>1037327365</v>
       </c>
       <c r="J29" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="L29" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="M29" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="N29" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q29" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="T29" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="U29" s="2" t="s">
         <v>47</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W29" s="2" t="n">
         <v>891000038</v>
       </c>
       <c r="Y29" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z29" s="2" t="n">
         <v>1043028226</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AB29" s="2" t="n">
         <v>41803329</v>
@@ -8010,13 +8008,13 @@
         <v>50688081</v>
       </c>
       <c r="AE29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF29" s="2" t="s">
         <v>63</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="112.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8024,7 +8022,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1772</v>
@@ -8048,32 +8046,32 @@
         <v>1038749905</v>
       </c>
       <c r="J30" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q30" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R30" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="R30" s="2" t="s">
+      <c r="T30" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>47</v>
@@ -8085,7 +8083,7 @@
         <v>41126750</v>
       </c>
       <c r="Z30" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AA30" s="2" t="n">
         <v>40257363</v>
@@ -8097,10 +8095,10 @@
         <v>40532003</v>
       </c>
       <c r="AF30" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG30" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="AG30" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="168.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8108,13 +8106,13 @@
         <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>36</v>
@@ -8132,40 +8130,40 @@
         <v>1029563772</v>
       </c>
       <c r="J31" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="N31" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="N31" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="O31" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q31" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="R31" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="T31" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="W31" s="2" t="n">
         <v>891000038</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AA31" s="2" t="n">
         <v>40257363</v>
@@ -8177,10 +8175,10 @@
         <v>40404668</v>
       </c>
       <c r="AF31" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8188,13 +8186,13 @@
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>36</v>
@@ -8206,40 +8204,40 @@
         <v>38</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>1029577919</v>
       </c>
       <c r="J32" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="L32" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="M32" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="N32" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="N32" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="O32" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q32" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="R32" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="R32" s="2" t="s">
+      <c r="T32" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="U32" s="2" t="s">
         <v>47</v>
@@ -8248,7 +8246,7 @@
         <v>891000038</v>
       </c>
       <c r="Y32" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Z32" s="9"/>
       <c r="AA32" s="2" t="n">
@@ -8261,7 +8259,7 @@
         <v>1139472771</v>
       </c>
       <c r="AF32" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" s="22" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8269,13 +8267,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="D33" s="20" t="s">
         <v>324</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>325</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>36</v>
@@ -8287,41 +8285,41 @@
         <v>38</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I33" s="20" t="n">
         <v>1031739270</v>
       </c>
       <c r="J33" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="K33" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="K33" s="20" t="s">
+      <c r="L33" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="L33" s="20" t="s">
+      <c r="M33" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="M33" s="20" t="s">
+      <c r="N33" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="N33" s="20" t="s">
-        <v>331</v>
-      </c>
       <c r="O33" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P33" s="20" t="s">
         <v>44</v>
       </c>
       <c r="Q33" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="R33" s="20" t="s">
         <v>332</v>
-      </c>
-      <c r="R33" s="20" t="s">
-        <v>333</v>
       </c>
       <c r="S33" s="20"/>
       <c r="T33" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U33" s="20"/>
       <c r="V33" s="20"/>
@@ -8330,7 +8328,7 @@
       </c>
       <c r="X33" s="20"/>
       <c r="Y33" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20" t="n">
@@ -8385,7 +8383,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1628</v>
@@ -8409,34 +8407,34 @@
         <v>1034890573</v>
       </c>
       <c r="J34" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="M34" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="N34" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="N34" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="O34" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q34" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="R34" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="R34" s="2" t="s">
+      <c r="T34" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="U34" s="2" t="s">
         <v>47</v>
@@ -8449,7 +8447,7 @@
         <v>41796012</v>
       </c>
       <c r="Z34" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AA34" s="2" t="n">
         <v>40257363</v>
@@ -8461,10 +8459,10 @@
         <v>1051891639</v>
       </c>
       <c r="AF34" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AG34" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="AG34" s="2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="168.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8472,13 +8470,13 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>36</v>
@@ -8496,34 +8494,34 @@
         <v>1037993543</v>
       </c>
       <c r="J35" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="K35" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="N35" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="N35" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="O35" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q35" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="R35" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="R35" s="2" t="s">
+      <c r="T35" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="U35" s="2" t="s">
         <v>47</v>
@@ -8533,7 +8531,7 @@
       </c>
       <c r="X35" s="9"/>
       <c r="Y35" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Z35" s="9"/>
       <c r="AA35" s="2" t="n">
@@ -8546,7 +8544,7 @@
         <v>1016072635</v>
       </c>
       <c r="AF35" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8554,13 +8552,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>361</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>362</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>36</v>
@@ -8569,7 +8567,7 @@
         <v>37</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9" t="n">
@@ -8579,28 +8577,28 @@
         <v>54</v>
       </c>
       <c r="K36" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="L36" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="M36" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="M36" s="9" t="s">
+      <c r="N36" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="N36" s="9" t="s">
-        <v>367</v>
-      </c>
       <c r="O36" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P36" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Q36" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="R36" s="9" t="s">
         <v>368</v>
-      </c>
-      <c r="R36" s="9" t="s">
-        <v>369</v>
       </c>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
@@ -8609,7 +8607,7 @@
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Z36" s="9" t="n">
         <v>1042953368</v>
@@ -8624,7 +8622,7 @@
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
       <c r="AF36" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AG36" s="9"/>
     </row>
@@ -8633,13 +8631,13 @@
         <v>32</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>373</v>
-      </c>
       <c r="D37" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>36</v>
@@ -8659,10 +8657,10 @@
         <v>54</v>
       </c>
       <c r="L37" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="M37" s="9" t="s">
         <v>374</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>375</v>
       </c>
       <c r="N37" s="9" t="s">
         <v>54</v>
@@ -8674,10 +8672,10 @@
         <v>44</v>
       </c>
       <c r="Q37" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="R37" s="9" t="s">
         <v>376</v>
-      </c>
-      <c r="R37" s="9" t="s">
-        <v>377</v>
       </c>
       <c r="S37" s="9"/>
       <c r="T37" s="9" t="s">
@@ -8688,10 +8686,10 @@
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
       <c r="Y37" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z37" s="9" t="s">
         <v>378</v>
-      </c>
-      <c r="Z37" s="9" t="s">
-        <v>379</v>
       </c>
       <c r="AA37" s="9" t="n">
         <v>41536959</v>
@@ -8703,10 +8701,10 @@
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
       <c r="AF37" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="AG37" s="9" t="s">
         <v>380</v>
-      </c>
-      <c r="AG37" s="9" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="125.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8714,13 +8712,13 @@
         <v>32</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>36</v>
@@ -8729,7 +8727,7 @@
         <v>37</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -8740,10 +8738,10 @@
         <v>54</v>
       </c>
       <c r="L38" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="M38" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>385</v>
       </c>
       <c r="N38" s="9" t="s">
         <v>54</v>
@@ -8755,14 +8753,14 @@
         <v>44</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="S38" s="9"/>
       <c r="T38" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U38" s="9" t="s">
         <v>47</v>
@@ -8771,25 +8769,25 @@
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
       <c r="Y38" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Z38" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AA38" s="9" t="n">
         <v>41536959</v>
       </c>
       <c r="AB38" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AC38" s="9"/>
       <c r="AD38" s="9"/>
       <c r="AE38" s="9"/>
       <c r="AF38" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="AG38" s="9" t="s">
         <v>380</v>
-      </c>
-      <c r="AG38" s="9" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8797,7 +8795,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -8819,10 +8817,10 @@
         <v>54</v>
       </c>
       <c r="L39" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="M39" s="9" t="s">
         <v>391</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>392</v>
       </c>
       <c r="N39" s="9" t="s">
         <v>43</v>
@@ -8834,10 +8832,10 @@
         <v>44</v>
       </c>
       <c r="Q39" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="R39" s="9" t="s">
         <v>393</v>
-      </c>
-      <c r="R39" s="9" t="s">
-        <v>394</v>
       </c>
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
@@ -8846,7 +8844,7 @@
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
       <c r="Y39" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="2" t="n">
@@ -8868,7 +8866,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
@@ -8889,28 +8887,28 @@
         <v>54</v>
       </c>
       <c r="K40" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="L40" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="L40" s="9" t="s">
+      <c r="M40" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="M40" s="9" t="s">
+      <c r="N40" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="N40" s="9" t="s">
-        <v>400</v>
-      </c>
       <c r="O40" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P40" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Q40" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="R40" s="9" t="s">
         <v>401</v>
-      </c>
-      <c r="R40" s="9" t="s">
-        <v>402</v>
       </c>
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
@@ -8919,7 +8917,7 @@
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
       <c r="Y40" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Z40" s="9"/>
       <c r="AA40" s="2" t="n">
@@ -8941,7 +8939,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -8963,10 +8961,10 @@
         <v>54</v>
       </c>
       <c r="L41" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="M41" s="9" t="s">
         <v>405</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>406</v>
       </c>
       <c r="N41" s="9" t="s">
         <v>43</v>
@@ -8978,10 +8976,10 @@
         <v>44</v>
       </c>
       <c r="Q41" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="R41" s="9" t="s">
         <v>407</v>
-      </c>
-      <c r="R41" s="9" t="s">
-        <v>408</v>
       </c>
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
@@ -9014,7 +9012,7 @@
         <v>32</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C42" s="9" t="n">
         <v>1685</v>
@@ -9039,25 +9037,25 @@
         <v>54</v>
       </c>
       <c r="K42" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="L42" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="N42" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="N42" s="2" t="s">
-        <v>412</v>
-      </c>
       <c r="O42" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q42" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="R42" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="Y42" s="2" t="n">
         <v>954480481</v>
@@ -9067,13 +9065,13 @@
         <v>40257363</v>
       </c>
       <c r="AB42" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AC42" s="2" t="n">
         <v>40219720</v>
       </c>
       <c r="AF42" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="207" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9081,13 +9079,13 @@
         <v>32</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>36</v>
@@ -9105,7 +9103,7 @@
         <v>1035382296</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>55</v>
@@ -9126,19 +9124,19 @@
         <v>44</v>
       </c>
       <c r="Q43" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="R43" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="R43" s="2" t="s">
+      <c r="T43" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="W43" s="2" t="n">
         <v>891000038</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Y43" s="2" t="s">
         <v>62</v>
@@ -9165,13 +9163,13 @@
         <v>32</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="D44" s="9" t="s">
         <v>425</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>426</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>36</v>
@@ -9187,31 +9185,31 @@
         <v>1037232232</v>
       </c>
       <c r="J44" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K44" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="K44" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="L44" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="M44" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="M44" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="N44" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q44" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="R44" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="T44" s="2" t="s">
         <v>47</v>
@@ -9232,7 +9230,7 @@
         <v>40536653</v>
       </c>
       <c r="AF44" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9240,13 +9238,13 @@
         <v>32</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>36</v>
@@ -9264,37 +9262,37 @@
         <v>1030064695</v>
       </c>
       <c r="J45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K45" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="M45" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="M45" s="2" t="s">
+      <c r="N45" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="N45" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="O45" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q45" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="R45" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="T45" s="2" t="s">
         <v>47</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Y45" s="2" t="n">
         <v>954480481</v>
@@ -9309,10 +9307,10 @@
         <v>41803329</v>
       </c>
       <c r="AC45" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF45" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="AF45" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9320,13 +9318,13 @@
         <v>32</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="D46" s="9" t="s">
         <v>439</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>440</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>53</v>
@@ -9335,7 +9333,7 @@
         <v>37</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -9346,13 +9344,13 @@
         <v>54</v>
       </c>
       <c r="L46" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="M46" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="M46" s="9" t="s">
+      <c r="N46" s="9" t="s">
         <v>443</v>
-      </c>
-      <c r="N46" s="9" t="s">
-        <v>444</v>
       </c>
       <c r="O46" s="9" t="s">
         <v>54</v>
@@ -9361,13 +9359,13 @@
         <v>44</v>
       </c>
       <c r="Q46" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="R46" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="R46" s="9" t="s">
+      <c r="S46" s="9" t="s">
         <v>446</v>
-      </c>
-      <c r="S46" s="9" t="s">
-        <v>447</v>
       </c>
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
@@ -9375,7 +9373,7 @@
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
       <c r="Y46" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Z46" s="9"/>
       <c r="AA46" s="9" t="n">
@@ -9397,13 +9395,13 @@
         <v>32</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C47" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>439</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>440</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>53</v>
@@ -9412,7 +9410,7 @@
         <v>37</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
@@ -9423,13 +9421,13 @@
         <v>54</v>
       </c>
       <c r="L47" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="M47" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="M47" s="9" t="s">
+      <c r="N47" s="9" t="s">
         <v>443</v>
-      </c>
-      <c r="N47" s="9" t="s">
-        <v>444</v>
       </c>
       <c r="O47" s="9" t="s">
         <v>54</v>
@@ -9438,13 +9436,13 @@
         <v>44</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R47" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="S47" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="S47" s="9" t="s">
-        <v>451</v>
       </c>
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
@@ -9452,7 +9450,7 @@
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
       <c r="Y47" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Z47" s="9"/>
       <c r="AA47" s="9" t="n">
@@ -9468,7 +9466,7 @@
         <v>63</v>
       </c>
       <c r="AG47" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9476,7 +9474,7 @@
         <v>32</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>34</v>
@@ -9521,10 +9519,10 @@
         <v>44</v>
       </c>
       <c r="Q48" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="R48" s="9" t="s">
         <v>454</v>
-      </c>
-      <c r="R48" s="9" t="s">
-        <v>455</v>
       </c>
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
@@ -9532,7 +9530,7 @@
       <c r="V48" s="9"/>
       <c r="W48" s="9"/>
       <c r="X48" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Y48" s="9" t="s">
         <v>81</v>
@@ -9555,13 +9553,13 @@
         <v>32</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="D49" s="9" t="s">
         <v>458</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>459</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>36</v>
@@ -9570,7 +9568,7 @@
         <v>37</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H49" s="9" t="n">
         <v>1052246133</v>
@@ -9579,31 +9577,31 @@
         <v>1043864644</v>
       </c>
       <c r="J49" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="K49" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="K49" s="9" t="s">
+      <c r="L49" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="L49" s="9" t="s">
+      <c r="M49" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="M49" s="9" t="s">
+      <c r="N49" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="N49" s="9" t="s">
+      <c r="O49" s="9" t="s">
         <v>465</v>
-      </c>
-      <c r="O49" s="9" t="s">
-        <v>466</v>
       </c>
       <c r="P49" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Q49" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="R49" s="9" t="s">
         <v>467</v>
-      </c>
-      <c r="R49" s="9" t="s">
-        <v>468</v>
       </c>
       <c r="S49" s="9"/>
       <c r="T49" s="9" t="s">
@@ -9614,7 +9612,7 @@
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
       <c r="Y49" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="Z49" s="9"/>
       <c r="AA49" s="2" t="n">
@@ -9634,13 +9632,13 @@
         <v>32</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C50" s="9" t="n">
         <v>1774</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>36</v>
@@ -9649,7 +9647,7 @@
         <v>37</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H50" s="9" t="n">
         <v>1259827275</v>
@@ -9658,31 +9656,31 @@
         <v>1043864644</v>
       </c>
       <c r="J50" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="L50" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="K50" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="L50" s="9" t="s">
+      <c r="M50" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="M50" s="9" t="s">
-        <v>474</v>
-      </c>
       <c r="N50" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="O50" s="9" t="s">
         <v>465</v>
-      </c>
-      <c r="O50" s="9" t="s">
-        <v>466</v>
       </c>
       <c r="P50" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Q50" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="R50" s="9" t="s">
         <v>475</v>
-      </c>
-      <c r="R50" s="9" t="s">
-        <v>476</v>
       </c>
       <c r="S50" s="9"/>
       <c r="T50" s="9" t="s">
@@ -9713,13 +9711,13 @@
         <v>32</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="D51" s="9" t="s">
         <v>478</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>479</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>36</v>
@@ -9728,7 +9726,7 @@
         <v>37</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="9" t="n">
@@ -9738,28 +9736,28 @@
         <v>54</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L51" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="M51" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="M51" s="9" t="s">
-        <v>481</v>
-      </c>
       <c r="N51" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="O51" s="9" t="s">
         <v>465</v>
-      </c>
-      <c r="O51" s="9" t="s">
-        <v>466</v>
       </c>
       <c r="P51" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Q51" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="R51" s="9" t="s">
         <v>482</v>
-      </c>
-      <c r="R51" s="9" t="s">
-        <v>483</v>
       </c>
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
@@ -9786,13 +9784,13 @@
         <v>32</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C52" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>478</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>479</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>36</v>
@@ -9801,7 +9799,7 @@
         <v>37</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="9" t="n">
@@ -9811,30 +9809,30 @@
         <v>54</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="O52" s="9" t="s">
         <v>465</v>
-      </c>
-      <c r="O52" s="9" t="s">
-        <v>466</v>
       </c>
       <c r="P52" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Q52" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="R52" s="9" t="s">
         <v>486</v>
-      </c>
-      <c r="R52" s="9" t="s">
-        <v>487</v>
       </c>
       <c r="S52" s="9"/>
       <c r="T52" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="U52" s="9"/>
       <c r="V52" s="9"/>
@@ -9863,13 +9861,13 @@
         <v>32</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C53" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>478</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>479</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>36</v>
@@ -9878,7 +9876,7 @@
         <v>37</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H53" s="9"/>
       <c r="I53" s="9" t="n">
@@ -9888,28 +9886,28 @@
         <v>54</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L53" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="M53" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="M53" s="9" t="s">
-        <v>491</v>
-      </c>
       <c r="N53" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="O53" s="9" t="s">
         <v>465</v>
-      </c>
-      <c r="O53" s="9" t="s">
-        <v>466</v>
       </c>
       <c r="P53" s="9" t="s">
         <v>44</v>
       </c>
       <c r="Q53" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="R53" s="9" t="s">
         <v>492</v>
-      </c>
-      <c r="R53" s="9" t="s">
-        <v>493</v>
       </c>
       <c r="S53" s="9"/>
       <c r="U53" s="9"/>
@@ -9937,13 +9935,13 @@
         <v>32</v>
       </c>
       <c r="B54" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="D54" s="9" t="s">
         <v>495</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>496</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>36</v>
@@ -9952,7 +9950,7 @@
         <v>37</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -9963,13 +9961,13 @@
         <v>54</v>
       </c>
       <c r="L54" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="M54" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="M54" s="9" t="s">
+      <c r="N54" s="9" t="s">
         <v>498</v>
-      </c>
-      <c r="N54" s="9" t="s">
-        <v>499</v>
       </c>
       <c r="O54" s="9" t="s">
         <v>54</v>
@@ -9978,10 +9976,10 @@
         <v>44</v>
       </c>
       <c r="Q54" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="R54" s="9" t="s">
         <v>500</v>
-      </c>
-      <c r="R54" s="9" t="s">
-        <v>501</v>
       </c>
       <c r="S54" s="9"/>
       <c r="T54" s="9" t="s">
@@ -10012,13 +10010,13 @@
         <v>32</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>36</v>
@@ -10030,56 +10028,56 @@
         <v>38</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I55" s="2" t="n">
         <v>1037327365</v>
       </c>
       <c r="J55" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K55" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="L55" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="M55" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="M55" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="N55" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q55" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="R55" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="R55" s="2" t="s">
+      <c r="S55" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="S55" s="2" t="s">
+      <c r="T55" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="W55" s="2" t="n">
         <v>891000038</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Y55" s="2" t="n">
         <v>954480481</v>
       </c>
       <c r="Z55" s="9"/>
       <c r="AA55" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AB55" s="2" t="n">
         <v>41803329</v>
@@ -10096,13 +10094,13 @@
         <v>32</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>36</v>
@@ -10114,50 +10112,50 @@
         <v>38</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I56" s="2" t="n">
         <v>1037327365</v>
       </c>
       <c r="J56" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K56" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K56" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="L56" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="M56" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="M56" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="N56" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q56" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="R56" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="R56" s="2" t="s">
+      <c r="S56" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="S56" s="2" t="s">
+      <c r="X56" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="X56" s="2" t="s">
-        <v>512</v>
       </c>
       <c r="Y56" s="2" t="n">
         <v>954480481</v>
       </c>
       <c r="Z56" s="9"/>
       <c r="AA56" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AB56" s="2" t="n">
         <v>41803329</v>
@@ -10168,16 +10166,16 @@
     </row>
     <row r="57" customFormat="false" ht="202.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>516</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>36</v>
@@ -10189,40 +10187,40 @@
         <v>38</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I57" s="2" t="n">
         <v>1030030936</v>
       </c>
       <c r="J57" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="K57" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="L57" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="M57" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="M57" s="2" t="s">
+      <c r="N57" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="N57" s="2" t="s">
-        <v>522</v>
-      </c>
       <c r="O57" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q57" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="R57" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="R57" s="2" t="s">
+      <c r="T57" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="U57" s="2" t="s">
         <v>47</v>
@@ -10231,7 +10229,7 @@
         <v>891000038</v>
       </c>
       <c r="Y57" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="Z57" s="9" t="n">
         <v>1042976341</v>
@@ -10246,21 +10244,21 @@
         <v>966638492</v>
       </c>
       <c r="AF57" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="202.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>530</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>36</v>
@@ -10278,34 +10276,34 @@
         <v>1037232232</v>
       </c>
       <c r="J58" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K58" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="K58" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="L58" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="M58" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="M58" s="2" t="s">
-        <v>532</v>
-      </c>
       <c r="N58" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P58" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q58" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="R58" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="R58" s="2" t="s">
+      <c r="T58" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="T58" s="2" t="s">
-        <v>535</v>
       </c>
       <c r="U58" s="2" t="s">
         <v>47</v>
@@ -10314,10 +10312,10 @@
         <v>891000038</v>
       </c>
       <c r="Y58" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="Z58" s="9" t="s">
         <v>536</v>
-      </c>
-      <c r="Z58" s="9" t="s">
-        <v>537</v>
       </c>
       <c r="AA58" s="2" t="n">
         <v>40257363</v>
@@ -10331,16 +10329,16 @@
     </row>
     <row r="59" customFormat="false" ht="168.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>540</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>36</v>
@@ -10349,7 +10347,7 @@
         <v>37</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>123905613</v>
@@ -10358,34 +10356,34 @@
         <v>1044875542</v>
       </c>
       <c r="J59" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="K59" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="L59" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="M59" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="M59" s="2" t="s">
+      <c r="N59" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="N59" s="2" t="s">
-        <v>545</v>
-      </c>
       <c r="O59" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="P59" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q59" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="R59" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="R59" s="2" t="s">
+      <c r="T59" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="U59" s="2" t="s">
         <v>47</v>
@@ -10406,24 +10404,24 @@
         <v>41803329</v>
       </c>
       <c r="AC59" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF59" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>552</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>88</v>
@@ -10432,7 +10430,7 @@
         <v>37</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>1052193900</v>
@@ -10441,40 +10439,40 @@
         <v>1046509144</v>
       </c>
       <c r="J60" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="K60" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="L60" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="L60" s="2" t="s">
+      <c r="M60" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="M60" s="2" t="s">
+      <c r="N60" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="N60" s="2" t="s">
-        <v>558</v>
-      </c>
       <c r="O60" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q60" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="R60" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="R60" s="2" t="s">
+      <c r="T60" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>561</v>
       </c>
       <c r="W60" s="2" t="n">
         <v>891000038</v>
       </c>
       <c r="Y60" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Z60" s="9"/>
       <c r="AA60" s="2" t="n">
@@ -10492,16 +10490,16 @@
     </row>
     <row r="61" customFormat="false" ht="202.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>53</v>
@@ -10519,46 +10517,46 @@
         <v>1038749905</v>
       </c>
       <c r="J61" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L61" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="K61" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="L61" s="2" t="s">
+      <c r="M61" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="M61" s="2" t="s">
-        <v>568</v>
-      </c>
       <c r="N61" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q61" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="R61" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="R61" s="2" t="s">
+      <c r="T61" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="T61" s="2" t="s">
-        <v>571</v>
       </c>
       <c r="U61" s="2" t="s">
         <v>47</v>
       </c>
       <c r="V61" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W61" s="2" t="n">
         <v>891000038</v>
       </c>
       <c r="X61" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="Y61" s="2" t="n">
         <v>951722425</v>
@@ -10578,16 +10576,16 @@
     </row>
     <row r="62" customFormat="false" ht="146.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>53</v>
@@ -10605,40 +10603,40 @@
         <v>1038749905</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L62" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="M62" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="M62" s="2" t="s">
-        <v>575</v>
-      </c>
       <c r="N62" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P62" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q62" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="R62" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="R62" s="2" t="s">
+      <c r="T62" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="T62" s="2" t="s">
-        <v>578</v>
       </c>
       <c r="U62" s="9" t="s">
         <v>47</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="W62" s="2" t="n">
         <v>891000038</v>
@@ -10647,7 +10645,7 @@
         <v>41144368</v>
       </c>
       <c r="Z62" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AA62" s="2" t="n">
         <v>40360423</v>
@@ -10661,21 +10659,21 @@
       <c r="AD62" s="9"/>
       <c r="AE62" s="9"/>
       <c r="AF62" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="146.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>36</v>
@@ -10691,49 +10689,49 @@
         <v>1038749905</v>
       </c>
       <c r="J63" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L63" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="K63" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="L63" s="2" t="s">
+      <c r="M63" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="M63" s="2" t="s">
-        <v>586</v>
-      </c>
       <c r="N63" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P63" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q63" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="R63" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="R63" s="2" t="s">
+      <c r="T63" s="2" t="s">
         <v>588</v>
-      </c>
-      <c r="T63" s="2" t="s">
-        <v>589</v>
       </c>
       <c r="U63" s="2" t="s">
         <v>47</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W63" s="2" t="n">
         <v>891000038</v>
       </c>
       <c r="Y63" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="Z63" s="9" t="s">
         <v>590</v>
-      </c>
-      <c r="Z63" s="9" t="s">
-        <v>591</v>
       </c>
       <c r="AA63" s="2" t="n">
         <v>40257363</v>
@@ -10748,16 +10746,16 @@
     </row>
     <row r="64" customFormat="false" ht="100.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>36</v>
@@ -10773,43 +10771,43 @@
         <v>1038749905</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P64" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q64" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="R64" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="R64" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="T64" s="9" t="s">
         <v>47</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Y64" s="2" t="n">
         <v>41144368</v>
       </c>
       <c r="Z64" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AA64" s="2" t="n">
         <v>40481662</v>
@@ -10823,16 +10821,16 @@
     </row>
     <row r="65" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>53</v>
@@ -10850,46 +10848,46 @@
         <v>1038749905</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L65" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="M65" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="M65" s="2" t="s">
-        <v>599</v>
-      </c>
       <c r="N65" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q65" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="R65" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="R65" s="2" t="s">
+      <c r="T65" s="2" t="s">
         <v>601</v>
-      </c>
-      <c r="T65" s="2" t="s">
-        <v>602</v>
       </c>
       <c r="U65" s="9" t="s">
         <v>47</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W65" s="2" t="n">
         <v>891000038</v>
       </c>
       <c r="Z65" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AA65" s="2" t="n">
         <v>40360423</v>
@@ -10904,27 +10902,27 @@
         <v>50688081</v>
       </c>
       <c r="AE65" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="AF65" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="AF65" s="9" t="s">
-        <v>605</v>
-      </c>
       <c r="AG65" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="168.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>608</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>36</v>
@@ -10936,40 +10934,40 @@
         <v>38</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I66" s="2" t="n">
         <v>1037232232</v>
       </c>
       <c r="J66" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K66" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="K66" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="L66" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="M66" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="M66" s="2" t="s">
-        <v>611</v>
-      </c>
       <c r="N66" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P66" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q66" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="R66" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="R66" s="2" t="s">
+      <c r="T66" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="T66" s="2" t="s">
-        <v>614</v>
       </c>
       <c r="U66" s="2" t="s">
         <v>47</v>
@@ -10982,7 +10980,7 @@
         <v>41164636</v>
       </c>
       <c r="Z66" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AA66" s="2" t="n">
         <v>40257363</v>
@@ -10994,18 +10992,18 @@
         <v>40536653</v>
       </c>
       <c r="AF66" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG66" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="112.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1733</v>
@@ -11029,34 +11027,34 @@
         <v>1032347724</v>
       </c>
       <c r="J67" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="K67" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="L67" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="L67" s="2" t="s">
+      <c r="M67" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="M67" s="2" t="s">
+      <c r="N67" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="N67" s="2" t="s">
-        <v>622</v>
-      </c>
       <c r="O67" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="P67" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q67" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="R67" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="R67" s="2" t="s">
+      <c r="T67" s="2" t="s">
         <v>624</v>
-      </c>
-      <c r="T67" s="2" t="s">
-        <v>625</v>
       </c>
       <c r="U67" s="9" t="s">
         <v>47</v>
@@ -11065,7 +11063,7 @@
         <v>891000038</v>
       </c>
       <c r="Y67" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z67" s="9" t="n">
         <v>1043020160</v>
@@ -11080,24 +11078,24 @@
         <v>42607655</v>
       </c>
       <c r="AF67" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AG67" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>630</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>88</v>
@@ -11106,7 +11104,7 @@
         <v>37</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>103759972</v>
@@ -11115,34 +11113,34 @@
         <v>1046576666</v>
       </c>
       <c r="J68" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="K68" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="L68" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="M68" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="M68" s="2" t="s">
+      <c r="N68" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="N68" s="2" t="s">
-        <v>636</v>
-      </c>
       <c r="O68" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q68" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="R68" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="R68" s="2" t="s">
+      <c r="T68" s="2" t="s">
         <v>638</v>
-      </c>
-      <c r="T68" s="2" t="s">
-        <v>639</v>
       </c>
       <c r="U68" s="9"/>
       <c r="W68" s="2" t="n">
@@ -11162,21 +11160,21 @@
         <v>1046576542</v>
       </c>
       <c r="AF68" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="247.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C69" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>530</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>36</v>
@@ -11194,40 +11192,40 @@
         <v>1037232232</v>
       </c>
       <c r="J69" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K69" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="K69" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="L69" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P69" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q69" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="R69" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="R69" s="2" t="s">
+      <c r="T69" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="T69" s="2" t="s">
-        <v>644</v>
       </c>
       <c r="U69" s="9" t="s">
         <v>47</v>
       </c>
       <c r="V69" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W69" s="2" t="n">
         <v>891000038</v>
@@ -11236,7 +11234,7 @@
         <v>41126750</v>
       </c>
       <c r="Z69" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AA69" s="2" t="n">
         <v>40257363</v>
@@ -11248,15 +11246,15 @@
         <v>40536653</v>
       </c>
       <c r="AF69" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C70" s="9" t="n">
         <v>1746</v>
@@ -11280,34 +11278,34 @@
         <v>1037332229</v>
       </c>
       <c r="J70" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="K70" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="L70" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="M70" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="M70" s="2" t="s">
-        <v>651</v>
-      </c>
       <c r="N70" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="P70" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q70" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="R70" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="R70" s="2" t="s">
+      <c r="T70" s="2" t="s">
         <v>653</v>
-      </c>
-      <c r="T70" s="2" t="s">
-        <v>654</v>
       </c>
       <c r="W70" s="2" t="n">
         <v>891000038</v>
@@ -11326,21 +11324,21 @@
         <v>40725812</v>
       </c>
       <c r="AF70" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>657</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>658</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>36</v>
@@ -11358,34 +11356,34 @@
         <v>1029456992</v>
       </c>
       <c r="J71" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="L71" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="K71" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="L71" s="2" t="s">
+      <c r="M71" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="M71" s="2" t="s">
-        <v>661</v>
-      </c>
       <c r="N71" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P71" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q71" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="R71" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="R71" s="2" t="s">
+      <c r="T71" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="T71" s="2" t="s">
-        <v>664</v>
       </c>
       <c r="U71" s="2" t="s">
         <v>47</v>
@@ -11394,13 +11392,13 @@
         <v>891000038</v>
       </c>
       <c r="X71" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="Y71" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z71" s="9" t="s">
         <v>665</v>
-      </c>
-      <c r="Y71" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="Z71" s="9" t="s">
-        <v>666</v>
       </c>
       <c r="AA71" s="2" t="n">
         <v>40257363</v>
@@ -11415,10 +11413,10 @@
     </row>
     <row r="72" customFormat="false" ht="98.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1685</v>
@@ -11442,34 +11440,34 @@
         <v>1029456992</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L72" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="M72" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="M72" s="2" t="s">
-        <v>669</v>
-      </c>
       <c r="N72" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q72" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="R72" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="R72" s="9" t="s">
+      <c r="T72" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="T72" s="2" t="s">
-        <v>672</v>
       </c>
       <c r="U72" s="9" t="s">
         <v>47</v>
@@ -11479,10 +11477,10 @@
         <v>891000038</v>
       </c>
       <c r="X72" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="Y72" s="2" t="s">
         <v>673</v>
-      </c>
-      <c r="Y72" s="2" t="s">
-        <v>674</v>
       </c>
       <c r="Z72" s="9" t="n">
         <v>1043025499</v>
@@ -11500,27 +11498,27 @@
         <v>50688081</v>
       </c>
       <c r="AE72" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AF72" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="AG72" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="AG72" s="2" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>679</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>36</v>
@@ -11538,34 +11536,34 @@
         <v>1029456992</v>
       </c>
       <c r="J73" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="L73" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="K73" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="L73" s="2" t="s">
+      <c r="M73" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="M73" s="2" t="s">
-        <v>682</v>
-      </c>
       <c r="N73" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P73" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q73" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="R73" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="R73" s="2" t="s">
+      <c r="T73" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="T73" s="2" t="s">
-        <v>685</v>
       </c>
       <c r="U73" s="2" t="s">
         <v>47</v>
@@ -11574,7 +11572,7 @@
         <v>891000038</v>
       </c>
       <c r="Y73" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Z73" s="9" t="n">
         <v>1043028560</v>
@@ -11583,27 +11581,27 @@
         <v>40257363</v>
       </c>
       <c r="AB73" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AC73" s="2" t="n">
         <v>40219720</v>
       </c>
       <c r="AF73" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="157.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1750</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>36</v>
@@ -11621,34 +11619,34 @@
         <v>1031700986</v>
       </c>
       <c r="J74" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="K74" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="L74" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="L74" s="2" t="s">
+      <c r="M74" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="M74" s="2" t="s">
+      <c r="N74" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="N74" s="2" t="s">
-        <v>695</v>
-      </c>
       <c r="O74" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="P74" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q74" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="R74" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="R74" s="2" t="s">
+      <c r="T74" s="2" t="s">
         <v>697</v>
-      </c>
-      <c r="T74" s="2" t="s">
-        <v>698</v>
       </c>
       <c r="U74" s="2" t="s">
         <v>47</v>
@@ -11657,13 +11655,13 @@
         <v>891000038</v>
       </c>
       <c r="X74" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="Y74" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="Y74" s="2" t="s">
+      <c r="Z74" s="9" t="s">
         <v>700</v>
-      </c>
-      <c r="Z74" s="9" t="s">
-        <v>701</v>
       </c>
       <c r="AA74" s="2" t="n">
         <v>40257363</v>
@@ -11677,16 +11675,16 @@
     </row>
     <row r="75" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>704</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>36</v>
@@ -11704,34 +11702,34 @@
         <v>1030064210</v>
       </c>
       <c r="J75" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="L75" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="K75" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="L75" s="2" t="s">
+      <c r="M75" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="M75" s="2" t="s">
-        <v>707</v>
-      </c>
       <c r="N75" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P75" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q75" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="R75" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="R75" s="2" t="s">
+      <c r="T75" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="T75" s="2" t="s">
-        <v>710</v>
       </c>
       <c r="U75" s="2" t="s">
         <v>47</v>
@@ -11743,7 +11741,7 @@
         <v>954480481</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AA75" s="2" t="n">
         <v>40257363</v>
@@ -11752,27 +11750,27 @@
         <v>41803329</v>
       </c>
       <c r="AC75" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF75" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="AG75" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="AG75" s="2" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>716</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>36</v>
@@ -11790,37 +11788,37 @@
         <v>1044809183</v>
       </c>
       <c r="J76" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="K76" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="L76" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="L76" s="2" t="s">
+      <c r="M76" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="M76" s="2" t="s">
+      <c r="N76" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="N76" s="2" t="s">
-        <v>721</v>
-      </c>
       <c r="O76" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="P76" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q76" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="R76" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="R76" s="2" t="s">
+      <c r="S76" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="T76" s="2" t="s">
         <v>723</v>
-      </c>
-      <c r="S76" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="T76" s="2" t="s">
-        <v>724</v>
       </c>
       <c r="U76" s="2" t="s">
         <v>47</v>
@@ -11829,13 +11827,13 @@
         <v>891000038</v>
       </c>
       <c r="Y76" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="Z76" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="Z76" s="9" t="s">
+      <c r="AA76" s="2" t="s">
         <v>726</v>
-      </c>
-      <c r="AA76" s="2" t="s">
-        <v>727</v>
       </c>
       <c r="AB76" s="2" t="n">
         <v>41803329</v>
@@ -11846,16 +11844,16 @@
     </row>
     <row r="77" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="D77" s="9" t="s">
         <v>729</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>730</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>88</v>
@@ -11864,7 +11862,7 @@
         <v>37</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>54</v>
@@ -11873,10 +11871,10 @@
         <v>54</v>
       </c>
       <c r="L77" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="M77" s="2" t="s">
         <v>731</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>732</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>54</v>
@@ -11888,13 +11886,13 @@
         <v>44</v>
       </c>
       <c r="Q77" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="R77" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="R77" s="2" t="s">
+      <c r="Y77" s="2" t="s">
         <v>734</v>
-      </c>
-      <c r="Y77" s="2" t="s">
-        <v>735</v>
       </c>
       <c r="Z77" s="9"/>
       <c r="AA77" s="2" t="n">
@@ -11904,15 +11902,15 @@
         <v>41784820</v>
       </c>
       <c r="AF77" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1685</v>
@@ -11936,13 +11934,13 @@
         <v>54</v>
       </c>
       <c r="L78" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="M78" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="M78" s="2" t="s">
+      <c r="N78" s="2" t="s">
         <v>738</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>739</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>54</v>
@@ -11951,13 +11949,13 @@
         <v>44</v>
       </c>
       <c r="Q78" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="R78" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="R78" s="2" t="s">
+      <c r="Y78" s="2" t="s">
         <v>741</v>
-      </c>
-      <c r="Y78" s="2" t="s">
-        <v>742</v>
       </c>
       <c r="Z78" s="9"/>
       <c r="AA78" s="2" t="n">
@@ -11970,27 +11968,27 @@
         <v>40615294</v>
       </c>
       <c r="AD78" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE78" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="AE78" s="2" t="s">
+      <c r="AF78" s="2" t="s">
         <v>744</v>
-      </c>
-      <c r="AF78" s="2" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="123.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1850</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>36</v>
@@ -11999,7 +11997,7 @@
         <v>37</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>54</v>
@@ -12008,13 +12006,13 @@
         <v>54</v>
       </c>
       <c r="L79" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="M79" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="M79" s="2" t="s">
+      <c r="N79" s="2" t="s">
         <v>749</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>750</v>
       </c>
       <c r="O79" s="2" t="s">
         <v>54</v>
@@ -12023,13 +12021,13 @@
         <v>44</v>
       </c>
       <c r="Q79" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="R79" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="R79" s="2" t="s">
+      <c r="T79" s="2" t="s">
         <v>752</v>
-      </c>
-      <c r="T79" s="2" t="s">
-        <v>753</v>
       </c>
       <c r="W79" s="2" t="n">
         <v>891000038</v>
@@ -12048,21 +12046,21 @@
         <v>975469568</v>
       </c>
       <c r="AF79" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="168.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>756</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>757</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>36</v>
@@ -12071,7 +12069,7 @@
         <v>37</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>54</v>
@@ -12080,13 +12078,13 @@
         <v>54</v>
       </c>
       <c r="L80" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="M80" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>759</v>
-      </c>
       <c r="N80" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>54</v>
@@ -12095,13 +12093,13 @@
         <v>44</v>
       </c>
       <c r="Q80" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="R80" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="R80" s="2" t="s">
+      <c r="T80" s="2" t="s">
         <v>761</v>
-      </c>
-      <c r="T80" s="2" t="s">
-        <v>762</v>
       </c>
       <c r="W80" s="2" t="n">
         <v>891000038</v>
@@ -12122,21 +12120,21 @@
         <v>1152976672</v>
       </c>
       <c r="AF80" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="123.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>756</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>757</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>88</v>
@@ -12145,7 +12143,7 @@
         <v>37</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
@@ -12156,13 +12154,13 @@
         <v>54</v>
       </c>
       <c r="L81" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="M81" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="M81" s="9" t="s">
-        <v>766</v>
-      </c>
       <c r="N81" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>54</v>
@@ -12171,13 +12169,13 @@
         <v>44</v>
       </c>
       <c r="Q81" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="R81" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="R81" s="2" t="s">
+      <c r="T81" s="2" t="s">
         <v>768</v>
-      </c>
-      <c r="T81" s="2" t="s">
-        <v>769</v>
       </c>
       <c r="W81" s="2" t="n">
         <v>891000038</v>
@@ -12196,21 +12194,21 @@
         <v>1152976672</v>
       </c>
       <c r="AF81" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C82" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>756</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>757</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>88</v>
@@ -12219,7 +12217,7 @@
         <v>37</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>54</v>
@@ -12228,10 +12226,10 @@
         <v>54</v>
       </c>
       <c r="L82" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="M82" s="2" t="s">
         <v>772</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>773</v>
       </c>
       <c r="N82" s="2" t="s">
         <v>54</v>
@@ -12243,40 +12241,40 @@
         <v>44</v>
       </c>
       <c r="Q82" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="R82" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="R82" s="2" t="s">
+      <c r="Y82" s="2" t="s">
         <v>775</v>
-      </c>
-      <c r="Y82" s="2" t="s">
-        <v>776</v>
       </c>
       <c r="Z82" s="9"/>
       <c r="AA82" s="2" t="n">
         <v>41536959</v>
       </c>
       <c r="AB82" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="AF82" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AG82" s="2" t="s">
         <v>777</v>
-      </c>
-      <c r="AF82" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AG82" s="2" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B83" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="D83" s="9" t="s">
         <v>780</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>781</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>88</v>
@@ -12294,10 +12292,10 @@
         <v>54</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>43</v>
@@ -12309,13 +12307,13 @@
         <v>44</v>
       </c>
       <c r="Q83" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="R83" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="R83" s="2" t="s">
+      <c r="Y83" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="Y83" s="2" t="s">
-        <v>785</v>
       </c>
       <c r="Z83" s="9"/>
       <c r="AA83" s="2" t="n">
@@ -12328,13 +12326,13 @@
         <v>40486346</v>
       </c>
       <c r="AD83" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE83" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="AE83" s="2" t="s">
+      <c r="AF83" s="2" t="s">
         <v>744</v>
-      </c>
-      <c r="AF83" s="2" t="s">
-        <v>745</v>
       </c>
       <c r="AG83" s="2" t="s">
         <v>92</v>
@@ -12342,16 +12340,16 @@
     </row>
     <row r="84" customFormat="false" ht="111.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>1840</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>36</v>
@@ -12360,7 +12358,7 @@
         <v>37</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>54</v>
@@ -12369,13 +12367,13 @@
         <v>54</v>
       </c>
       <c r="L84" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="M84" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="M84" s="2" t="s">
-        <v>789</v>
-      </c>
       <c r="N84" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>54</v>
@@ -12384,13 +12382,13 @@
         <v>44</v>
       </c>
       <c r="Q84" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="R84" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="R84" s="2" t="s">
+      <c r="T84" s="2" t="s">
         <v>791</v>
-      </c>
-      <c r="T84" s="2" t="s">
-        <v>792</v>
       </c>
       <c r="U84" s="2" t="s">
         <v>47</v>
@@ -12399,13 +12397,13 @@
         <v>891000038</v>
       </c>
       <c r="X84" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="Y84" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="Y84" s="2" t="s">
+      <c r="Z84" s="9" t="s">
         <v>794</v>
-      </c>
-      <c r="Z84" s="9" t="s">
-        <v>795</v>
       </c>
       <c r="AA84" s="2" t="n">
         <v>40257363</v>
@@ -12417,15 +12415,15 @@
         <v>1152976672</v>
       </c>
       <c r="AF84" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="213.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>1782</v>
@@ -12449,34 +12447,34 @@
         <v>1037933338</v>
       </c>
       <c r="J85" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="K85" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="K85" s="2" t="s">
+      <c r="L85" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="L85" s="2" t="s">
+      <c r="M85" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="M85" s="2" t="s">
+      <c r="N85" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="N85" s="2" t="s">
-        <v>802</v>
-      </c>
       <c r="O85" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="P85" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q85" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="R85" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="R85" s="2" t="s">
+      <c r="T85" s="2" t="s">
         <v>804</v>
-      </c>
-      <c r="T85" s="2" t="s">
-        <v>805</v>
       </c>
       <c r="U85" s="2" t="s">
         <v>47</v>
@@ -12485,10 +12483,10 @@
         <v>891000038</v>
       </c>
       <c r="Y85" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="Z85" s="9" t="s">
         <v>806</v>
-      </c>
-      <c r="Z85" s="9" t="s">
-        <v>807</v>
       </c>
       <c r="AA85" s="2" t="n">
         <v>40257363</v>
@@ -12500,21 +12498,21 @@
         <v>40976432</v>
       </c>
       <c r="AF85" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>679</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>36</v>
@@ -12532,34 +12530,34 @@
         <v>1029456992</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P86" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q86" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="R86" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="R86" s="2" t="s">
+      <c r="T86" s="2" t="s">
         <v>811</v>
-      </c>
-      <c r="T86" s="2" t="s">
-        <v>812</v>
       </c>
       <c r="U86" s="2" t="s">
         <v>47</v>
@@ -12568,7 +12566,7 @@
         <v>891000038</v>
       </c>
       <c r="Y86" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Z86" s="9" t="n">
         <v>1043028560</v>
@@ -12585,16 +12583,16 @@
     </row>
     <row r="87" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>36</v>
@@ -12603,7 +12601,7 @@
         <v>37</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H87" s="2" t="n">
         <v>1047764989</v>
@@ -12612,40 +12610,40 @@
         <v>1043829199</v>
       </c>
       <c r="J87" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="K87" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="L87" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="L87" s="2" t="s">
+      <c r="M87" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="M87" s="2" t="s">
+      <c r="N87" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="N87" s="2" t="s">
-        <v>820</v>
-      </c>
       <c r="O87" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="P87" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q87" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="R87" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="R87" s="2" t="s">
+      <c r="T87" s="2" t="s">
         <v>822</v>
-      </c>
-      <c r="T87" s="2" t="s">
-        <v>823</v>
       </c>
       <c r="W87" s="2" t="n">
         <v>891000038</v>
       </c>
       <c r="Y87" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="Z87" s="9"/>
       <c r="AA87" s="2" t="n">
@@ -12661,18 +12659,18 @@
         <v>1119456932</v>
       </c>
       <c r="AE87" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="AF87" s="2" t="s">
         <v>825</v>
-      </c>
-      <c r="AF87" s="2" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="168.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>1690</v>
@@ -12696,37 +12694,37 @@
         <v>54</v>
       </c>
       <c r="K88" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="L88" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="L88" s="2" t="s">
+      <c r="M88" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="M88" s="2" t="s">
-        <v>830</v>
-      </c>
       <c r="N88" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="P88" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q88" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="R88" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="R88" s="2" t="s">
+      <c r="T88" s="2" t="s">
         <v>832</v>
-      </c>
-      <c r="T88" s="2" t="s">
-        <v>833</v>
       </c>
       <c r="W88" s="2" t="n">
         <v>891000038</v>
       </c>
       <c r="Y88" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="Z88" s="9"/>
       <c r="AA88" s="2" t="n">
@@ -12739,15 +12737,15 @@
         <v>40682625</v>
       </c>
       <c r="AF88" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="112.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C89" s="2" t="n">
         <v>1663</v>
@@ -12771,34 +12769,34 @@
         <v>1029590753</v>
       </c>
       <c r="J89" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="K89" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="K89" s="2" t="s">
+      <c r="L89" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="L89" s="2" t="s">
+      <c r="M89" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="M89" s="2" t="s">
-        <v>839</v>
-      </c>
       <c r="N89" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="P89" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q89" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="R89" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="R89" s="2" t="s">
+      <c r="T89" s="2" t="s">
         <v>841</v>
-      </c>
-      <c r="T89" s="2" t="s">
-        <v>842</v>
       </c>
       <c r="U89" s="2" t="s">
         <v>47</v>
@@ -12807,7 +12805,7 @@
         <v>891000038</v>
       </c>
       <c r="Y89" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="Z89" s="9"/>
       <c r="AA89" s="2" t="n">
@@ -12820,24 +12818,24 @@
         <v>41190122</v>
       </c>
       <c r="AF89" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG89" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>846</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>847</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>36</v>
@@ -12846,7 +12844,7 @@
         <v>37</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H90" s="2" t="n">
         <v>1036526380</v>
@@ -12855,34 +12853,34 @@
         <v>1043864644</v>
       </c>
       <c r="J90" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="L90" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="K90" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="L90" s="2" t="s">
+      <c r="M90" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="M90" s="2" t="s">
-        <v>850</v>
-      </c>
       <c r="N90" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="O90" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="P90" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q90" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="R90" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="R90" s="2" t="s">
+      <c r="T90" s="2" t="s">
         <v>852</v>
-      </c>
-      <c r="T90" s="2" t="s">
-        <v>853</v>
       </c>
       <c r="U90" s="2" t="s">
         <v>47</v>
@@ -12891,7 +12889,7 @@
         <v>891000038</v>
       </c>
       <c r="Y90" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="Z90" s="9" t="n">
         <v>1042981086</v>
@@ -12908,16 +12906,16 @@
     </row>
     <row r="91" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>855</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>856</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>36</v>
@@ -12932,37 +12930,37 @@
         <v>1031927743</v>
       </c>
       <c r="I91" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="J91" s="2" t="s">
+      <c r="K91" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="L91" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="L91" s="2" t="s">
+      <c r="M91" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="M91" s="2" t="s">
+      <c r="N91" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="N91" s="2" t="s">
-        <v>862</v>
-      </c>
       <c r="O91" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="P91" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q91" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="R91" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="R91" s="2" t="s">
+      <c r="T91" s="2" t="s">
         <v>864</v>
-      </c>
-      <c r="T91" s="2" t="s">
-        <v>865</v>
       </c>
       <c r="U91" s="2" t="s">
         <v>47</v>
@@ -12971,7 +12969,7 @@
         <v>891000038</v>
       </c>
       <c r="Y91" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="Z91" s="9"/>
       <c r="AA91" s="2" t="n">
@@ -12986,16 +12984,16 @@
     </row>
     <row r="92" customFormat="false" ht="123" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>657</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>658</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>36</v>
@@ -13013,34 +13011,34 @@
         <v>1029456992</v>
       </c>
       <c r="J92" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="L92" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="K92" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="L92" s="2" t="s">
+      <c r="M92" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="M92" s="2" t="s">
-        <v>661</v>
-      </c>
       <c r="N92" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P92" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q92" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="R92" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="R92" s="2" t="s">
-        <v>869</v>
-      </c>
       <c r="T92" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="U92" s="2" t="s">
         <v>47</v>
@@ -13049,13 +13047,13 @@
         <v>891000038</v>
       </c>
       <c r="X92" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="Y92" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Z92" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AA92" s="2" t="n">
         <v>40257363</v>
@@ -13069,16 +13067,16 @@
     </row>
     <row r="93" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>872</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>873</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>36</v>
@@ -13096,46 +13094,46 @@
         <v>1029456992</v>
       </c>
       <c r="J93" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="M93" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="K93" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="M93" s="2" t="s">
-        <v>875</v>
-      </c>
       <c r="N93" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P93" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q93" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="R93" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="R93" s="2" t="s">
+      <c r="T93" s="2" t="s">
         <v>877</v>
-      </c>
-      <c r="T93" s="2" t="s">
-        <v>878</v>
       </c>
       <c r="U93" s="2" t="s">
         <v>47</v>
       </c>
       <c r="V93" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W93" s="2" t="n">
         <v>891000038</v>
       </c>
       <c r="Y93" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Z93" s="9" t="n">
         <v>1043025499</v>
@@ -13152,10 +13150,10 @@
     </row>
     <row r="94" customFormat="false" ht="213.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C94" s="2" t="n">
         <v>1837</v>
@@ -13170,43 +13168,43 @@
         <v>37</v>
       </c>
       <c r="G94" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="H94" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="I94" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="J94" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="K94" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="K94" s="2" t="s">
+      <c r="L94" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="L94" s="2" t="s">
+      <c r="M94" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="M94" s="2" t="s">
+      <c r="N94" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="N94" s="2" t="s">
-        <v>887</v>
-      </c>
       <c r="O94" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="P94" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q94" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="R94" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="R94" s="2" t="s">
+      <c r="T94" s="2" t="s">
         <v>889</v>
-      </c>
-      <c r="T94" s="2" t="s">
-        <v>890</v>
       </c>
       <c r="W94" s="2" t="n">
         <v>891000038</v>
@@ -13222,21 +13220,21 @@
         <v>40046176</v>
       </c>
       <c r="AF94" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="146.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>1840</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>36</v>
@@ -13245,7 +13243,7 @@
         <v>37</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>54</v>
@@ -13254,13 +13252,13 @@
         <v>54</v>
       </c>
       <c r="L95" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="M95" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="M95" s="2" t="s">
-        <v>789</v>
-      </c>
       <c r="N95" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O95" s="2" t="s">
         <v>54</v>
@@ -13269,13 +13267,13 @@
         <v>44</v>
       </c>
       <c r="Q95" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="R95" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="R95" s="2" t="s">
-        <v>894</v>
-      </c>
       <c r="T95" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="U95" s="2" t="s">
         <v>47</v>
@@ -13284,13 +13282,13 @@
         <v>891000038</v>
       </c>
       <c r="X95" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="Y95" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="Z95" s="9" t="s">
         <v>895</v>
-      </c>
-      <c r="Y95" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="Z95" s="9" t="s">
-        <v>896</v>
       </c>
       <c r="AA95" s="2" t="n">
         <v>40257363</v>
@@ -13302,15 +13300,15 @@
         <v>1152976672</v>
       </c>
       <c r="AF95" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="112.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C96" s="2" t="n">
         <v>1685</v>
@@ -13334,46 +13332,46 @@
         <v>1029456992</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L96" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="M96" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="M96" s="2" t="s">
-        <v>669</v>
-      </c>
       <c r="N96" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P96" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q96" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="R96" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="R96" s="2" t="s">
-        <v>899</v>
-      </c>
       <c r="T96" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="U96" s="2" t="s">
         <v>47</v>
       </c>
       <c r="V96" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="W96" s="2" t="n">
         <v>891000038</v>
       </c>
       <c r="Y96" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Z96" s="9" t="n">
         <v>1042975051</v>
@@ -13388,21 +13386,21 @@
         <v>40219720</v>
       </c>
       <c r="AF96" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="236.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>901</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>902</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>36</v>
@@ -13420,34 +13418,34 @@
         <v>1031681973</v>
       </c>
       <c r="J97" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="K97" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="L97" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="L97" s="2" t="s">
+      <c r="M97" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="M97" s="2" t="s">
+      <c r="N97" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="N97" s="2" t="s">
-        <v>907</v>
-      </c>
       <c r="O97" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="P97" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q97" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="R97" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="R97" s="2" t="s">
+      <c r="T97" s="2" t="s">
         <v>909</v>
-      </c>
-      <c r="T97" s="2" t="s">
-        <v>910</v>
       </c>
       <c r="U97" s="2" t="s">
         <v>47</v>
@@ -13456,7 +13454,7 @@
         <v>891000038</v>
       </c>
       <c r="Y97" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="Z97" s="9" t="n">
         <v>1042973490</v>
@@ -13471,18 +13469,18 @@
         <v>972432515</v>
       </c>
       <c r="AF97" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="AG97" s="2" t="s">
         <v>912</v>
-      </c>
-      <c r="AG97" s="2" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="247.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>1716</v>
@@ -13506,34 +13504,34 @@
         <v>1038034108</v>
       </c>
       <c r="J98" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="K98" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="K98" s="2" t="s">
+      <c r="L98" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="L98" s="2" t="s">
+      <c r="M98" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="M98" s="2" t="s">
+      <c r="N98" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="N98" s="2" t="s">
-        <v>919</v>
-      </c>
       <c r="O98" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="P98" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q98" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="R98" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="R98" s="2" t="s">
+      <c r="T98" s="2" t="s">
         <v>921</v>
-      </c>
-      <c r="T98" s="2" t="s">
-        <v>922</v>
       </c>
       <c r="U98" s="2" t="s">
         <v>47</v>
@@ -13542,7 +13540,7 @@
         <v>891000038</v>
       </c>
       <c r="Y98" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="Z98" s="9" t="n">
         <v>1043028315</v>
@@ -13557,24 +13555,24 @@
         <v>4821920</v>
       </c>
       <c r="AF98" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AG98" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>36</v>
@@ -13586,19 +13584,19 @@
         <v>38</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>54</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>54</v>
@@ -13607,13 +13605,13 @@
         <v>44</v>
       </c>
       <c r="Q99" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="R99" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="R99" s="2" t="s">
+      <c r="T99" s="2" t="s">
         <v>927</v>
-      </c>
-      <c r="T99" s="2" t="s">
-        <v>928</v>
       </c>
       <c r="U99" s="2" t="s">
         <v>47</v>
@@ -13622,10 +13620,10 @@
         <v>891000038</v>
       </c>
       <c r="X99" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="Y99" s="2" t="s">
         <v>929</v>
-      </c>
-      <c r="Y99" s="2" t="s">
-        <v>930</v>
       </c>
       <c r="Z99" s="9" t="n">
         <v>1043027998</v>
@@ -13642,16 +13640,16 @@
     </row>
     <row r="100" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C100" s="2" t="n">
         <v>1610</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>36</v>
@@ -13660,7 +13658,7 @@
         <v>37</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>54</v>
@@ -13669,13 +13667,13 @@
         <v>54</v>
       </c>
       <c r="L100" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="M100" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="M100" s="2" t="s">
+      <c r="N100" s="2" t="s">
         <v>935</v>
-      </c>
-      <c r="N100" s="2" t="s">
-        <v>936</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>54</v>
@@ -13684,16 +13682,16 @@
         <v>44</v>
       </c>
       <c r="Q100" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="R100" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="R100" s="2" t="s">
+      <c r="T100" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="T100" s="2" t="s">
+      <c r="Y100" s="2" t="s">
         <v>939</v>
-      </c>
-      <c r="Y100" s="2" t="s">
-        <v>940</v>
       </c>
       <c r="Z100" s="9"/>
       <c r="AA100" s="2" t="n">
@@ -13703,33 +13701,33 @@
         <v>41803329</v>
       </c>
       <c r="AC100" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AD100" s="2" t="n">
         <v>1026149614</v>
       </c>
       <c r="AE100" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="AF100" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="AF100" s="2" t="s">
+      <c r="AG100" s="2" t="s">
         <v>943</v>
-      </c>
-      <c r="AG100" s="2" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B101" s="13" t="s">
+        <v>944</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>946</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>947</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>88</v>
@@ -13738,7 +13736,7 @@
         <v>37</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>54</v>
@@ -13747,10 +13745,10 @@
         <v>54</v>
       </c>
       <c r="L101" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="M101" s="2" t="s">
         <v>948</v>
-      </c>
-      <c r="M101" s="2" t="s">
-        <v>949</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>54</v>
@@ -13762,13 +13760,13 @@
         <v>44</v>
       </c>
       <c r="Q101" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="R101" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="R101" s="2" t="s">
+      <c r="T101" s="2" t="s">
         <v>951</v>
-      </c>
-      <c r="T101" s="2" t="s">
-        <v>952</v>
       </c>
       <c r="Y101" s="2" t="n">
         <v>41144368</v>
@@ -13784,27 +13782,27 @@
         <v>1026149614</v>
       </c>
       <c r="AE101" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AF101" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG101" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B102" s="13" t="s">
+        <v>952</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>954</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>955</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>36</v>
@@ -13813,7 +13811,7 @@
         <v>37</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>54</v>
@@ -13822,10 +13820,10 @@
         <v>54</v>
       </c>
       <c r="L102" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="M102" s="2" t="s">
         <v>956</v>
-      </c>
-      <c r="M102" s="2" t="s">
-        <v>957</v>
       </c>
       <c r="N102" s="2" t="s">
         <v>54</v>
@@ -13837,13 +13835,13 @@
         <v>44</v>
       </c>
       <c r="Q102" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="R102" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="R102" s="2" t="s">
+      <c r="T102" s="2" t="s">
         <v>959</v>
-      </c>
-      <c r="T102" s="2" t="s">
-        <v>960</v>
       </c>
       <c r="Y102" s="2" t="n">
         <v>963257161</v>
@@ -13859,27 +13857,27 @@
         <v>1026149614</v>
       </c>
       <c r="AE102" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AF102" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG102" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B103" s="13" t="s">
+        <v>960</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>962</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>963</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>36</v>
@@ -13897,31 +13895,31 @@
         <v>1035779439</v>
       </c>
       <c r="J103" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="K103" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="K103" s="2" t="s">
+      <c r="L103" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="L103" s="2" t="s">
+      <c r="M103" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="M103" s="2" t="s">
+      <c r="N103" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="N103" s="2" t="s">
-        <v>968</v>
-      </c>
       <c r="O103" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="P103" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q103" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="R103" s="2" t="s">
         <v>969</v>
-      </c>
-      <c r="R103" s="2" t="s">
-        <v>970</v>
       </c>
       <c r="T103" s="2" t="s">
         <v>47</v>
@@ -13945,27 +13943,27 @@
         <v>1026149614</v>
       </c>
       <c r="AE103" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AF103" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG103" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B104" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>972</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>973</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>36</v>
@@ -13983,31 +13981,31 @@
         <v>54</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L104" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="M104" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="M104" s="2" t="s">
-        <v>975</v>
-      </c>
       <c r="N104" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P104" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q104" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="R104" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="R104" s="2" t="s">
+      <c r="T104" s="2" t="s">
         <v>977</v>
-      </c>
-      <c r="T104" s="2" t="s">
-        <v>978</v>
       </c>
       <c r="U104" s="2" t="s">
         <v>47</v>
@@ -14028,27 +14026,27 @@
         <v>1026149614</v>
       </c>
       <c r="AE104" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AF104" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG104" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C105" s="2" t="n">
         <v>1666</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>36</v>
@@ -14066,34 +14064,34 @@
         <v>1031637184</v>
       </c>
       <c r="J105" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="K105" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="L105" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="L105" s="2" t="s">
+      <c r="M105" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="M105" s="2" t="s">
+      <c r="N105" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="N105" s="2" t="s">
-        <v>986</v>
-      </c>
       <c r="O105" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="P105" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q105" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="R105" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="R105" s="2" t="s">
+      <c r="Y105" s="2" t="s">
         <v>988</v>
-      </c>
-      <c r="Y105" s="2" t="s">
-        <v>989</v>
       </c>
       <c r="Z105" s="9"/>
       <c r="AA105" s="2" t="n">
@@ -14103,33 +14101,33 @@
         <v>41803329</v>
       </c>
       <c r="AC105" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AD105" s="2" t="n">
         <v>1026149614</v>
       </c>
       <c r="AE105" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="AF105" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="AF105" s="2" t="s">
+      <c r="AG105" s="2" t="s">
         <v>992</v>
-      </c>
-      <c r="AG105" s="2" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="193.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="B106" s="13" t="s">
         <v>994</v>
       </c>
-      <c r="B106" s="13" t="s">
-        <v>995</v>
-      </c>
       <c r="C106" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>36</v>
@@ -14147,46 +14145,46 @@
         <v>1038749905</v>
       </c>
       <c r="J106" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L106" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="K106" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="L106" s="2" t="s">
+      <c r="M106" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="M106" s="2" t="s">
-        <v>568</v>
-      </c>
       <c r="N106" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P106" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="R106" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="T106" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="T106" s="2" t="s">
-        <v>571</v>
       </c>
       <c r="U106" s="2" t="s">
         <v>47</v>
       </c>
       <c r="V106" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W106" s="2" t="n">
         <v>891000038</v>
       </c>
       <c r="X106" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="Y106" s="2" t="n">
         <v>951722425</v>
@@ -14206,16 +14204,16 @@
     </row>
     <row r="107" customFormat="false" ht="189.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="13" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C107" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>53</v>
@@ -14233,46 +14231,46 @@
         <v>1038749905</v>
       </c>
       <c r="J107" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L107" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="K107" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="L107" s="2" t="s">
+      <c r="M107" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="M107" s="2" t="s">
-        <v>568</v>
-      </c>
       <c r="N107" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P107" s="2" t="s">
         <v>44</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="R107" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="T107" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="T107" s="2" t="s">
-        <v>571</v>
       </c>
       <c r="U107" s="2" t="s">
         <v>47</v>
       </c>
       <c r="V107" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W107" s="2" t="n">
         <v>891000038</v>
       </c>
       <c r="X107" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="Y107" s="2" t="n">
         <v>951722425</v>
@@ -14292,16 +14290,16 @@
     </row>
     <row r="108" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>1002</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>1003</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>88</v>
@@ -14310,7 +14308,7 @@
         <v>37</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>54</v>
@@ -14319,10 +14317,10 @@
         <v>54</v>
       </c>
       <c r="L108" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="M108" s="2" t="s">
         <v>1004</v>
-      </c>
-      <c r="M108" s="2" t="s">
-        <v>1005</v>
       </c>
       <c r="N108" s="2" t="s">
         <v>54</v>
@@ -14334,10 +14332,10 @@
         <v>44</v>
       </c>
       <c r="Q108" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="R108" s="2" t="s">
         <v>1006</v>
-      </c>
-      <c r="R108" s="2" t="s">
-        <v>1007</v>
       </c>
       <c r="Y108" s="2" t="n">
         <v>42567297</v>
@@ -14352,16 +14350,16 @@
     </row>
     <row r="109" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C109" s="9" t="s">
         <v>1008</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="D109" s="9" t="s">
         <v>1009</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>1010</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>88</v>
@@ -14370,7 +14368,7 @@
         <v>37</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>54</v>
@@ -14379,13 +14377,13 @@
         <v>54</v>
       </c>
       <c r="L109" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M109" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="M109" s="2" t="s">
-        <v>1012</v>
-      </c>
       <c r="N109" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O109" s="2" t="s">
         <v>54</v>
@@ -14394,16 +14392,16 @@
         <v>44</v>
       </c>
       <c r="Q109" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R109" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="R109" s="2" t="s">
+      <c r="T109" s="2" t="s">
         <v>1014</v>
       </c>
-      <c r="T109" s="2" t="s">
+      <c r="Y109" s="2" t="s">
         <v>1015</v>
-      </c>
-      <c r="Y109" s="2" t="s">
-        <v>1016</v>
       </c>
       <c r="Z109" s="9"/>
       <c r="AA109" s="2" t="n">
@@ -14418,16 +14416,16 @@
     </row>
     <row r="110" customFormat="false" ht="174" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>1018</v>
-      </c>
       <c r="D110" s="9" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>88</v>
@@ -14436,7 +14434,7 @@
         <v>37</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>54</v>
@@ -14445,13 +14443,13 @@
         <v>54</v>
       </c>
       <c r="L110" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M110" s="9" t="s">
         <v>1019</v>
       </c>
-      <c r="M110" s="9" t="s">
-        <v>1020</v>
-      </c>
       <c r="N110" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O110" s="2" t="s">
         <v>54</v>
@@ -14460,20 +14458,20 @@
         <v>44</v>
       </c>
       <c r="Q110" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="R110" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="R110" s="1" t="s">
+      <c r="T110" s="2" t="s">
         <v>1022</v>
-      </c>
-      <c r="T110" s="2" t="s">
-        <v>1023</v>
       </c>
       <c r="U110" s="9"/>
       <c r="W110" s="2" t="n">
         <v>891000038</v>
       </c>
       <c r="Y110" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="Z110" s="9"/>
       <c r="AA110" s="2" t="n">
@@ -14489,16 +14487,16 @@
     </row>
     <row r="111" customFormat="false" ht="177.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>88</v>
@@ -14507,7 +14505,7 @@
         <v>37</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>54</v>
@@ -14516,13 +14514,13 @@
         <v>54</v>
       </c>
       <c r="L111" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="M111" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="M111" s="2" t="s">
-        <v>1027</v>
-      </c>
       <c r="N111" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O111" s="2" t="s">
         <v>54</v>
@@ -14531,20 +14529,20 @@
         <v>44</v>
       </c>
       <c r="Q111" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="R111" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="R111" s="1" t="s">
+      <c r="T111" s="9" t="s">
         <v>1029</v>
-      </c>
-      <c r="T111" s="9" t="s">
-        <v>1030</v>
       </c>
       <c r="U111" s="9"/>
       <c r="W111" s="2" t="n">
         <v>891000038</v>
       </c>
       <c r="Y111" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="Z111" s="9"/>
       <c r="AA111" s="2" t="n">
@@ -14560,16 +14558,16 @@
     </row>
     <row r="112" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>88</v>
@@ -14578,7 +14576,7 @@
         <v>37</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>54</v>
@@ -14587,13 +14585,13 @@
         <v>54</v>
       </c>
       <c r="L112" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M112" s="9" t="s">
         <v>1033</v>
       </c>
-      <c r="M112" s="9" t="s">
-        <v>1034</v>
-      </c>
       <c r="N112" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O112" s="2" t="s">
         <v>54</v>
@@ -14602,16 +14600,16 @@
         <v>44</v>
       </c>
       <c r="Q112" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="R112" s="9" t="s">
         <v>1035</v>
       </c>
-      <c r="R112" s="9" t="s">
+      <c r="T112" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="T112" s="2" t="s">
+      <c r="Y112" s="2" t="s">
         <v>1037</v>
-      </c>
-      <c r="Y112" s="2" t="s">
-        <v>1038</v>
       </c>
       <c r="Z112" s="9"/>
       <c r="AA112" s="2" t="n">
@@ -14627,16 +14625,16 @@
     </row>
     <row r="113" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>88</v>
@@ -14645,7 +14643,7 @@
         <v>37</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>54</v>
@@ -14654,13 +14652,13 @@
         <v>54</v>
       </c>
       <c r="L113" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M113" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="M113" s="2" t="s">
-        <v>1041</v>
-      </c>
       <c r="N113" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O113" s="2" t="s">
         <v>54</v>
@@ -14669,16 +14667,16 @@
         <v>44</v>
       </c>
       <c r="Q113" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="R113" s="9" t="s">
         <v>1042</v>
       </c>
-      <c r="R113" s="9" t="s">
+      <c r="T113" s="2" t="s">
         <v>1043</v>
       </c>
-      <c r="T113" s="2" t="s">
+      <c r="Y113" s="2" t="s">
         <v>1044</v>
-      </c>
-      <c r="Y113" s="2" t="s">
-        <v>1045</v>
       </c>
       <c r="Z113" s="9"/>
       <c r="AA113" s="2" t="n">
@@ -14694,16 +14692,16 @@
     </row>
     <row r="114" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>88</v>
@@ -14712,7 +14710,7 @@
         <v>37</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>54</v>
@@ -14721,13 +14719,13 @@
         <v>54</v>
       </c>
       <c r="L114" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="M114" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="M114" s="2" t="s">
-        <v>1048</v>
-      </c>
       <c r="N114" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O114" s="2" t="s">
         <v>54</v>
@@ -14736,13 +14734,13 @@
         <v>44</v>
       </c>
       <c r="Q114" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="R114" s="9" t="s">
         <v>1049</v>
       </c>
-      <c r="R114" s="9" t="s">
-        <v>1050</v>
-      </c>
       <c r="T114" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="Y114" s="2" t="n">
         <v>41144368</v>
@@ -14761,16 +14759,16 @@
     </row>
     <row r="115" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>88</v>
@@ -14779,7 +14777,7 @@
         <v>37</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>54</v>
@@ -14788,10 +14786,10 @@
         <v>54</v>
       </c>
       <c r="L115" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M115" s="2" t="s">
         <v>1052</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>1053</v>
       </c>
       <c r="N115" s="2" t="s">
         <v>54</v>
@@ -14803,13 +14801,13 @@
         <v>44</v>
       </c>
       <c r="Q115" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="R115" s="9" t="s">
         <v>1054</v>
       </c>
-      <c r="R115" s="9" t="s">
-        <v>1055</v>
-      </c>
       <c r="Y115" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Z115" s="9"/>
       <c r="AA115" s="2" t="n">
@@ -14821,16 +14819,16 @@
     </row>
     <row r="116" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>88</v>
@@ -14839,7 +14837,7 @@
         <v>37</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>54</v>
@@ -14848,13 +14846,13 @@
         <v>54</v>
       </c>
       <c r="L116" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M116" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="M116" s="2" t="s">
-        <v>1058</v>
-      </c>
       <c r="N116" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O116" s="2" t="s">
         <v>54</v>
@@ -14863,13 +14861,13 @@
         <v>44</v>
       </c>
       <c r="Q116" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="R116" s="9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T116" s="2" t="s">
         <v>1059</v>
-      </c>
-      <c r="T116" s="2" t="s">
-        <v>1060</v>
       </c>
       <c r="Y116" s="2" t="n">
         <v>954019369</v>
@@ -14888,16 +14886,16 @@
     </row>
     <row r="117" customFormat="false" ht="112.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>88</v>
@@ -14906,7 +14904,7 @@
         <v>37</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>54</v>
@@ -14915,13 +14913,13 @@
         <v>54</v>
       </c>
       <c r="L117" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M117" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="M117" s="2" t="s">
-        <v>1063</v>
-      </c>
       <c r="N117" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O117" s="2" t="s">
         <v>54</v>
@@ -14930,16 +14928,16 @@
         <v>44</v>
       </c>
       <c r="Q117" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="R117" s="9" t="s">
         <v>1064</v>
       </c>
-      <c r="R117" s="9" t="s">
+      <c r="T117" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Y117" s="2" t="s">
         <v>1065</v>
-      </c>
-      <c r="T117" s="2" t="s">
-        <v>1060</v>
-      </c>
-      <c r="Y117" s="2" t="s">
-        <v>1066</v>
       </c>
       <c r="Z117" s="9"/>
       <c r="AA117" s="2" t="n">
@@ -14955,16 +14953,16 @@
     </row>
     <row r="118" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>88</v>
@@ -14973,7 +14971,7 @@
         <v>37</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>54</v>
@@ -14982,13 +14980,13 @@
         <v>54</v>
       </c>
       <c r="L118" s="9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="M118" s="2" t="s">
         <v>1068</v>
       </c>
-      <c r="M118" s="2" t="s">
-        <v>1069</v>
-      </c>
       <c r="N118" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O118" s="2" t="s">
         <v>54</v>
@@ -14997,16 +14995,16 @@
         <v>44</v>
       </c>
       <c r="Q118" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="R118" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="T118" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Y118" s="2" t="s">
         <v>1070</v>
-      </c>
-      <c r="T118" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="Y118" s="2" t="s">
-        <v>1071</v>
       </c>
       <c r="Z118" s="9"/>
       <c r="AA118" s="2" t="n">
@@ -15022,16 +15020,16 @@
     </row>
     <row r="119" customFormat="false" ht="121.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>88</v>
@@ -15040,7 +15038,7 @@
         <v>37</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>54</v>
@@ -15049,13 +15047,13 @@
         <v>54</v>
       </c>
       <c r="L119" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="M119" s="9" t="s">
         <v>1073</v>
       </c>
-      <c r="M119" s="9" t="s">
-        <v>1074</v>
-      </c>
       <c r="N119" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O119" s="2" t="s">
         <v>54</v>
@@ -15064,16 +15062,16 @@
         <v>44</v>
       </c>
       <c r="Q119" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="R119" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="R119" s="2" t="s">
+      <c r="T119" s="2" t="s">
         <v>1076</v>
       </c>
-      <c r="T119" s="2" t="s">
+      <c r="Y119" s="2" t="s">
         <v>1077</v>
-      </c>
-      <c r="Y119" s="2" t="s">
-        <v>1078</v>
       </c>
       <c r="Z119" s="9"/>
       <c r="AA119" s="2" t="n">
@@ -15088,16 +15086,16 @@
     </row>
     <row r="120" customFormat="false" ht="179.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>88</v>
@@ -15106,7 +15104,7 @@
         <v>37</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>54</v>
@@ -15115,13 +15113,13 @@
         <v>54</v>
       </c>
       <c r="L120" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="M120" s="2" t="s">
         <v>1080</v>
       </c>
-      <c r="M120" s="2" t="s">
-        <v>1081</v>
-      </c>
       <c r="N120" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O120" s="2" t="s">
         <v>54</v>
@@ -15130,16 +15128,16 @@
         <v>44</v>
       </c>
       <c r="Q120" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="R120" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="R120" s="2" t="s">
+      <c r="T120" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Y120" s="2" t="s">
         <v>1083</v>
-      </c>
-      <c r="T120" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="Y120" s="2" t="s">
-        <v>1084</v>
       </c>
       <c r="Z120" s="9"/>
       <c r="AA120" s="2" t="n">
@@ -15154,16 +15152,16 @@
     </row>
     <row r="121" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>88</v>
@@ -15172,7 +15170,7 @@
         <v>37</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>54</v>
@@ -15181,13 +15179,13 @@
         <v>54</v>
       </c>
       <c r="L121" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="M121" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="M121" s="2" t="s">
-        <v>1087</v>
-      </c>
       <c r="N121" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O121" s="2" t="s">
         <v>54</v>
@@ -15196,13 +15194,13 @@
         <v>44</v>
       </c>
       <c r="Q121" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="R121" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="R121" s="2" t="s">
-        <v>1089</v>
-      </c>
       <c r="T121" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="Y121" s="2" t="n">
         <v>41971094</v>
@@ -15220,16 +15218,16 @@
     </row>
     <row r="122" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>88</v>
@@ -15238,7 +15236,7 @@
         <v>37</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>54</v>
@@ -15247,13 +15245,13 @@
         <v>54</v>
       </c>
       <c r="L122" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M122" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="M122" s="2" t="s">
-        <v>1092</v>
-      </c>
       <c r="N122" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O122" s="2" t="s">
         <v>54</v>
@@ -15262,13 +15260,13 @@
         <v>44</v>
       </c>
       <c r="Q122" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="R122" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="T122" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="Y122" s="2" t="n">
         <v>41144368</v>
@@ -15286,10 +15284,10 @@
     </row>
     <row r="123" customFormat="false" ht="116.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C123" s="2" t="n">
         <v>1649</v>
@@ -15313,7 +15311,7 @@
         <v>54</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="M123" s="2" t="n">
         <v>1639</v>
@@ -15328,13 +15326,13 @@
         <v>44</v>
       </c>
       <c r="Q123" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="R123" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="R123" s="2" t="s">
+      <c r="Y123" s="2" t="s">
         <v>1097</v>
-      </c>
-      <c r="Y123" s="2" t="s">
-        <v>1098</v>
       </c>
       <c r="Z123" s="9"/>
       <c r="AA123" s="2" t="n">
@@ -15347,13 +15345,13 @@
         <v>1119456932</v>
       </c>
       <c r="AE123" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="AF123" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AG123" s="2" t="s">
         <v>825</v>
-      </c>
-      <c r="AF123" s="2" t="s">
-        <v>1099</v>
-      </c>
-      <c r="AG123" s="2" t="s">
-        <v>826</v>
       </c>
     </row>
   </sheetData>
@@ -15396,14 +15394,14 @@
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="50.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="25"/>
@@ -15413,7 +15411,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
@@ -15423,7 +15421,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="25"/>
@@ -15433,7 +15431,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="28" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="25"/>
@@ -15443,7 +15441,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="25"/>
@@ -15453,7 +15451,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="30" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
@@ -15463,7 +15461,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="31" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="25"/>
@@ -15473,7 +15471,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="32" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="26"/>
@@ -15483,7 +15481,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
@@ -15493,7 +15491,7 @@
     </row>
     <row r="10" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="35" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
@@ -15503,7 +15501,7 @@
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="36" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
@@ -15516,7 +15514,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="38" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
   </sheetData>

--- a/raw/riesaufdrucke.xlsx
+++ b/raw/riesaufdrucke.xlsx
@@ -388,7 +388,7 @@
     <t xml:space="preserve">18XX</t>
   </si>
   <si>
-    <t xml:space="preserve">18XX (Wirkungszeit des Papiermachers</t>
+    <t xml:space="preserve">18XX (Wirkungszeit des Papiermachers)</t>
   </si>
   <si>
     <t xml:space="preserve">Franz Leopold Fischer</t>
@@ -4282,10 +4282,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ123"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
-      <selection pane="bottomLeft" activeCell="Y9" activeCellId="0" sqref="Y9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15394,7 +15394,7 @@
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="50.14"/>
   </cols>
